--- a/Saved_file/EM001/2026_07/sap_data.xlsx
+++ b/Saved_file/EM001/2026_07/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST3805</t>
+          <t>CUST4559</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39756055</v>
+        <v>41208409</v>
       </c>
       <c r="E2" t="n">
-        <v>10775425</v>
+        <v>12633631</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST7919</t>
+          <t>CUST4898</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>39734127</v>
+        <v>55976870</v>
       </c>
       <c r="E3" t="n">
-        <v>12065146</v>
+        <v>18496162</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST5691</t>
+          <t>CUST8967</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35503643</v>
+        <v>43691435</v>
       </c>
       <c r="E4" t="n">
-        <v>12083358</v>
+        <v>13487935</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST7076</t>
+          <t>CUST7886</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>56042382</v>
+        <v>44063571</v>
       </c>
       <c r="E5" t="n">
-        <v>18082006</v>
+        <v>12881663</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-07-25</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST7798</t>
+          <t>CUST5156</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>41204323</v>
+        <v>35989482</v>
       </c>
       <c r="E6" t="n">
-        <v>14247106</v>
+        <v>12454197</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -762,25 +762,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST3709</t>
+          <t>CUST9705</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>57629311</v>
+        <v>54212126</v>
       </c>
       <c r="E7" t="n">
-        <v>15678179</v>
+        <v>14900888</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST6872</t>
+          <t>CUST4898</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32391374</v>
+        <v>31574528</v>
       </c>
       <c r="E8" t="n">
-        <v>9291175</v>
+        <v>10799995</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST2685</t>
+          <t>CUST2031</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>46715096</v>
+        <v>33414627</v>
       </c>
       <c r="E9" t="n">
-        <v>14471234</v>
+        <v>11220286</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -902,12 +902,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST7519</t>
+          <t>CUST8780</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31102392</v>
+        <v>32101584</v>
       </c>
       <c r="E10" t="n">
-        <v>8846002</v>
+        <v>9762436</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -961,12 +961,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -978,25 +978,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-07-18</t>
+          <t>2026-07-24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST7640</t>
+          <t>CUST1709</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33858515</v>
+        <v>59968255</v>
       </c>
       <c r="E11" t="n">
-        <v>11446087</v>
+        <v>19158784</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST4258</t>
+          <t>CUST9236</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47150273</v>
+        <v>46363088</v>
       </c>
       <c r="E12" t="n">
-        <v>15977604</v>
+        <v>12128467</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-07-24</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST7076</t>
+          <t>CUST4559</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37182687</v>
+        <v>48146745</v>
       </c>
       <c r="E13" t="n">
-        <v>9352147</v>
+        <v>13763924</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1123,12 +1123,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST9556</t>
+          <t>CUST3342</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42871475</v>
+        <v>44696794</v>
       </c>
       <c r="E14" t="n">
-        <v>11487788</v>
+        <v>14841409</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST6872</t>
+          <t>CUST3886</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>53107932</v>
+        <v>48388285</v>
       </c>
       <c r="E15" t="n">
-        <v>18481729</v>
+        <v>16808663</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-31</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST4626</t>
+          <t>CUST3430</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32322868</v>
+        <v>38869586</v>
       </c>
       <c r="E16" t="n">
-        <v>10658594</v>
+        <v>11814495</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-07-23</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST2989</t>
+          <t>CUST6961</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53687507</v>
+        <v>32809288</v>
       </c>
       <c r="E17" t="n">
-        <v>15490890</v>
+        <v>11071243</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST6891</t>
+          <t>CUST4559</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42750167</v>
+        <v>45836494</v>
       </c>
       <c r="E18" t="n">
-        <v>14419030</v>
+        <v>11561489</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST1731</t>
+          <t>CUST2482</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40309077</v>
+        <v>50630340</v>
       </c>
       <c r="E19" t="n">
-        <v>13795963</v>
+        <v>15345117</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST7798</t>
+          <t>CUST5805</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>31703520</v>
+        <v>55235078</v>
       </c>
       <c r="E20" t="n">
-        <v>9249569</v>
+        <v>18764143</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST3605</t>
+          <t>CUST6743</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>54782560</v>
+        <v>53804470</v>
       </c>
       <c r="E21" t="n">
-        <v>19144256</v>
+        <v>16118327</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST6891</t>
+          <t>CUST8746</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>56297795</v>
+        <v>47497190</v>
       </c>
       <c r="E22" t="n">
-        <v>15838930</v>
+        <v>12740142</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST6891</t>
+          <t>CUST9050</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41730185</v>
+        <v>44770229</v>
       </c>
       <c r="E23" t="n">
-        <v>12954364</v>
+        <v>15658177</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1663,12 +1663,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST8653</t>
+          <t>CUST5076</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>47226329</v>
+        <v>47658306</v>
       </c>
       <c r="E24" t="n">
-        <v>12737620</v>
+        <v>13553821</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-05</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST1533</t>
+          <t>CUST2000</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>54425942</v>
+        <v>32964022</v>
       </c>
       <c r="E25" t="n">
-        <v>16849961</v>
+        <v>10969512</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST8278</t>
+          <t>CUST6362</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38909207</v>
+        <v>50566061</v>
       </c>
       <c r="E26" t="n">
-        <v>13069933</v>
+        <v>15330818</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1820,12 +1820,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-07-24</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST9122</t>
+          <t>CUST8449</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32816255</v>
+        <v>34452345</v>
       </c>
       <c r="E27" t="n">
-        <v>8278375</v>
+        <v>11194103</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-07-04</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST8376</t>
+          <t>CUST1524</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58328730</v>
+        <v>54883083</v>
       </c>
       <c r="E28" t="n">
-        <v>17357224</v>
+        <v>14125431</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST7519</t>
+          <t>CUST1728</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>46124289</v>
+        <v>31098417</v>
       </c>
       <c r="E29" t="n">
-        <v>12826682</v>
+        <v>7923873</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-07-28</t>
+          <t>2026-07-30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST1890</t>
+          <t>CUST6743</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>33404463</v>
+        <v>57960389</v>
       </c>
       <c r="E30" t="n">
-        <v>9674069</v>
+        <v>17200466</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST3709</t>
+          <t>CUST5737</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>47472547</v>
+        <v>37415386</v>
       </c>
       <c r="E31" t="n">
-        <v>12839809</v>
+        <v>11273885</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST2694</t>
+          <t>CUST2842</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>53818168</v>
+        <v>56552334</v>
       </c>
       <c r="E32" t="n">
-        <v>14346444</v>
+        <v>14867576</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST5903</t>
+          <t>CUST6743</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>38845327</v>
+        <v>41413422</v>
       </c>
       <c r="E33" t="n">
-        <v>11553748</v>
+        <v>12933068</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-07-18</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST6872</t>
+          <t>CUST5805</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>56421265</v>
+        <v>38584486</v>
       </c>
       <c r="E34" t="n">
-        <v>18940660</v>
+        <v>13344863</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST6433</t>
+          <t>CUST7110</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>50987255</v>
+        <v>53910955</v>
       </c>
       <c r="E35" t="n">
-        <v>13949251</v>
+        <v>15590205</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST1533</t>
+          <t>CUST7110</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>47598279</v>
+        <v>43385568</v>
       </c>
       <c r="E36" t="n">
-        <v>13537948</v>
+        <v>14660128</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-07-23</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST1850</t>
+          <t>CUST5076</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>59378243</v>
+        <v>46770874</v>
       </c>
       <c r="E37" t="n">
-        <v>19637009</v>
+        <v>13092111</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2419,12 +2419,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST7519</t>
+          <t>CUST5088</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>38477294</v>
+        <v>56795889</v>
       </c>
       <c r="E38" t="n">
-        <v>12097101</v>
+        <v>15048202</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-07-23</t>
+          <t>2026-07-05</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST5284</t>
+          <t>CUST9050</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>58653119</v>
+        <v>47454834</v>
       </c>
       <c r="E39" t="n">
-        <v>18416844</v>
+        <v>13063551</v>
       </c>
       <c r="F39" t="n">
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2544,25 +2544,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST2447</t>
+          <t>CUST5088</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>58234576</v>
+        <v>34779941</v>
       </c>
       <c r="E40" t="n">
-        <v>19072486</v>
+        <v>8762836</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2576,12 +2576,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST1850</t>
+          <t>CUST8593</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>48050741</v>
+        <v>51235689</v>
       </c>
       <c r="E41" t="n">
-        <v>13592293</v>
+        <v>14042166</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST3709</t>
+          <t>CUST8308</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>46612688</v>
+        <v>55174442</v>
       </c>
       <c r="E42" t="n">
-        <v>14973096</v>
+        <v>14000433</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST2447</t>
+          <t>CUST8780</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>40234340</v>
+        <v>53990419</v>
       </c>
       <c r="E43" t="n">
-        <v>10080684</v>
+        <v>18130812</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST7640</t>
+          <t>CUST2309</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>33793994</v>
+        <v>35936977</v>
       </c>
       <c r="E44" t="n">
-        <v>11269329</v>
+        <v>10800357</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-07-24</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST5691</t>
+          <t>CUST9705</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>50721598</v>
+        <v>31231991</v>
       </c>
       <c r="E45" t="n">
-        <v>13918170</v>
+        <v>10637230</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST3709</t>
+          <t>CUST1723</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>57205526</v>
+        <v>43948283</v>
       </c>
       <c r="E46" t="n">
-        <v>19016917</v>
+        <v>13262464</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-07-28</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST2685</t>
+          <t>CUST2309</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>38088699</v>
+        <v>53359938</v>
       </c>
       <c r="E47" t="n">
-        <v>12895677</v>
+        <v>17623800</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2954,12 +2954,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST7798</t>
+          <t>CUST9413</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>48295402</v>
+        <v>50657710</v>
       </c>
       <c r="E48" t="n">
-        <v>15794522</v>
+        <v>16331805</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST3170</t>
+          <t>CUST1723</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>48490719</v>
+        <v>52503809</v>
       </c>
       <c r="E49" t="n">
-        <v>13592636</v>
+        <v>16069083</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST3709</t>
+          <t>CUST5335</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>34770466</v>
+        <v>43367228</v>
       </c>
       <c r="E50" t="n">
-        <v>11087167</v>
+        <v>12315747</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST6776</t>
+          <t>CUST8308</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>45877041</v>
+        <v>55032114</v>
       </c>
       <c r="E51" t="n">
-        <v>14152925</v>
+        <v>18872973</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-07-28</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST1731</t>
+          <t>CUST4062</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>51790282</v>
+        <v>49695559</v>
       </c>
       <c r="E52" t="n">
-        <v>17077199</v>
+        <v>15739846</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST7076</t>
+          <t>CUST9413</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>32733636</v>
+        <v>42338100</v>
       </c>
       <c r="E53" t="n">
-        <v>9290645</v>
+        <v>13480741</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-07-29</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST1890</t>
+          <t>CUST9705</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>32926772</v>
+        <v>47238818</v>
       </c>
       <c r="E54" t="n">
-        <v>9445859</v>
+        <v>13547437</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST8653</t>
+          <t>CUST8802</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>41897953</v>
+        <v>44342746</v>
       </c>
       <c r="E55" t="n">
-        <v>10686308</v>
+        <v>14368509</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-07-04</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST9229</t>
+          <t>CUST1783</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>57804502</v>
+        <v>51091174</v>
       </c>
       <c r="E56" t="n">
-        <v>17903572</v>
+        <v>15885308</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST3955</t>
+          <t>CUST1524</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>53685151</v>
+        <v>57663660</v>
       </c>
       <c r="E57" t="n">
-        <v>18152051</v>
+        <v>19691407</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST5350</t>
+          <t>CUST5805</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>58940158</v>
+        <v>39669975</v>
       </c>
       <c r="E58" t="n">
-        <v>18300881</v>
+        <v>13370467</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3570,25 +3570,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST3311</t>
+          <t>CUST8780</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>35204750</v>
+        <v>48040305</v>
       </c>
       <c r="E59" t="n">
-        <v>10416730</v>
+        <v>13981897</v>
       </c>
       <c r="F59" t="n">
         <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-07-18</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST3709</t>
+          <t>CUST3430</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>39242598</v>
+        <v>38860314</v>
       </c>
       <c r="E60" t="n">
-        <v>10233747</v>
+        <v>12367755</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3661,12 +3661,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST3805</t>
+          <t>CUST3401</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>57734441</v>
+        <v>37390220</v>
       </c>
       <c r="E61" t="n">
-        <v>16657994</v>
+        <v>10286406</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3710,12 +3710,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3732,25 +3732,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST2694</t>
+          <t>CUST5088</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>45901919</v>
+        <v>51964029</v>
       </c>
       <c r="E62" t="n">
-        <v>12739427</v>
+        <v>13193570</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3786,29 +3786,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST8376</t>
+          <t>CUST2083</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>46454387</v>
+        <v>47933220</v>
       </c>
       <c r="E63" t="n">
-        <v>13417297</v>
+        <v>14842869</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3818,17 +3818,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST3227</t>
+          <t>CUST7257</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>50269213</v>
+        <v>37621850</v>
       </c>
       <c r="E64" t="n">
-        <v>17047602</v>
+        <v>9666040</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-07-28</t>
+          <t>2026-07-19</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST3311</t>
+          <t>CUST8593</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>31239525</v>
+        <v>37903955</v>
       </c>
       <c r="E65" t="n">
-        <v>7826003</v>
+        <v>12517358</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-07-28</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST5691</t>
+          <t>CUST2031</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>44561204</v>
+        <v>48079675</v>
       </c>
       <c r="E66" t="n">
-        <v>14960028</v>
+        <v>15451023</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3980,17 +3980,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST9229</t>
+          <t>CUST8780</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>48551150</v>
+        <v>50261640</v>
       </c>
       <c r="E67" t="n">
-        <v>15392190</v>
+        <v>16257491</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST3709</t>
+          <t>CUST5737</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>41845752</v>
+        <v>35594837</v>
       </c>
       <c r="E68" t="n">
-        <v>13154839</v>
+        <v>12147918</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST6433</t>
+          <t>CUST9050</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>47529449</v>
+        <v>40900080</v>
       </c>
       <c r="E69" t="n">
-        <v>14154666</v>
+        <v>11774127</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4164,25 +4164,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST4281</t>
+          <t>CUST5076</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>31327661</v>
+        <v>45165762</v>
       </c>
       <c r="E70" t="n">
-        <v>10019405</v>
+        <v>14599093</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4218,29 +4218,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-07-24</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST2685</t>
+          <t>CUST7726</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>38445200</v>
+        <v>53122620</v>
       </c>
       <c r="E71" t="n">
-        <v>12194918</v>
+        <v>14593048</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4255,12 +4255,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST8376</t>
+          <t>CUST9023</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>56023528</v>
+        <v>34066984</v>
       </c>
       <c r="E72" t="n">
-        <v>14222964</v>
+        <v>8826140</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4304,17 +4304,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4326,25 +4326,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-07-23</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST7519</t>
+          <t>CUST9705</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>32728478</v>
+        <v>30447998</v>
       </c>
       <c r="E73" t="n">
-        <v>10099536</v>
+        <v>8839354</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST3955</t>
+          <t>CUST5335</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>35154475</v>
+        <v>30227620</v>
       </c>
       <c r="E74" t="n">
-        <v>9314453</v>
+        <v>7774523</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4434,29 +4434,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST5691</t>
+          <t>CUST8701</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>42396835</v>
+        <v>30231755</v>
       </c>
       <c r="E75" t="n">
-        <v>13619530</v>
+        <v>10078318</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4466,17 +4466,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4488,29 +4488,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-07-25</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST5350</t>
+          <t>CUST6362</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>55877481</v>
+        <v>57236669</v>
       </c>
       <c r="E76" t="n">
-        <v>17709197</v>
+        <v>18175487</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4520,12 +4520,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST8376</t>
+          <t>CUST2083</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42953212</v>
+        <v>51539643</v>
       </c>
       <c r="E77" t="n">
-        <v>14110494</v>
+        <v>15881466</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST5903</t>
+          <t>CUST2000</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>46820626</v>
+        <v>35650933</v>
       </c>
       <c r="E78" t="n">
-        <v>13903851</v>
+        <v>10579210</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4628,17 +4628,17 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4650,25 +4650,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-07-24</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST5691</t>
+          <t>CUST3886</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>47129682</v>
+        <v>41998276</v>
       </c>
       <c r="E79" t="n">
-        <v>15699946</v>
+        <v>13162423</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST7640</t>
+          <t>CUST3268</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>49764860</v>
+        <v>46065926</v>
       </c>
       <c r="E80" t="n">
-        <v>12471252</v>
+        <v>15158551</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4736,12 +4736,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -4758,29 +4758,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST7519</t>
+          <t>CUST8449</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>43958096</v>
+        <v>59288532</v>
       </c>
       <c r="E81" t="n">
-        <v>11284039</v>
+        <v>17300418</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4790,17 +4790,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST6872</t>
+          <t>CUST8802</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>31205776</v>
+        <v>45035951</v>
       </c>
       <c r="E82" t="n">
-        <v>8965488</v>
+        <v>14008266</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4849,12 +4849,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST1731</t>
+          <t>CUST1279</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>34713998</v>
+        <v>46620264</v>
       </c>
       <c r="E83" t="n">
-        <v>11915563</v>
+        <v>14448167</v>
       </c>
       <c r="F83" t="n">
         <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4903,12 +4903,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-28</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST3311</t>
+          <t>CUST3342</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>59557613</v>
+        <v>48046352</v>
       </c>
       <c r="E84" t="n">
-        <v>17464720</v>
+        <v>13841405</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4974,25 +4974,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST2675</t>
+          <t>CUST2309</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>59227239</v>
+        <v>36701791</v>
       </c>
       <c r="E85" t="n">
-        <v>18211104</v>
+        <v>9796733</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-30</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST1570</t>
+          <t>CUST1728</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>43331190</v>
+        <v>41380233</v>
       </c>
       <c r="E86" t="n">
-        <v>13034100</v>
+        <v>12942271</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5082,25 +5082,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST3605</t>
+          <t>CUST1524</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>37626222</v>
+        <v>31815994</v>
       </c>
       <c r="E87" t="n">
-        <v>10531775</v>
+        <v>10558952</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST1731</t>
+          <t>CUST8275</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>32446512</v>
+        <v>46075180</v>
       </c>
       <c r="E88" t="n">
-        <v>8740529</v>
+        <v>15047507</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST3170</t>
+          <t>CUST8308</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>38647257</v>
+        <v>38992278</v>
       </c>
       <c r="E89" t="n">
-        <v>10591104</v>
+        <v>12284366</v>
       </c>
       <c r="F89" t="n">
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,12 +5222,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST2243</t>
+          <t>CUST2482</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>43042378</v>
+        <v>46599779</v>
       </c>
       <c r="E90" t="n">
-        <v>14294827</v>
+        <v>15081470</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5276,12 +5276,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5298,25 +5298,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST3311</t>
+          <t>CUST8780</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>57623162</v>
+        <v>45647679</v>
       </c>
       <c r="E91" t="n">
-        <v>20099731</v>
+        <v>13899221</v>
       </c>
       <c r="F91" t="n">
         <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5330,12 +5330,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5352,29 +5352,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST2685</t>
+          <t>CUST5076</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>31388140</v>
+        <v>38013564</v>
       </c>
       <c r="E92" t="n">
-        <v>9788509</v>
+        <v>11553640</v>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5384,17 +5384,17 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5406,25 +5406,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-07-04</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST8376</t>
+          <t>CUST8746</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>58454173</v>
+        <v>34055560</v>
       </c>
       <c r="E93" t="n">
-        <v>16716990</v>
+        <v>11128764</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5438,17 +5438,17 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5460,22 +5460,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-07-29</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST2694</t>
+          <t>CUST5737</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>35864134</v>
+        <v>34171187</v>
       </c>
       <c r="E94" t="n">
-        <v>10408044</v>
+        <v>9579605</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
         <v>59</v>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5514,25 +5514,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-07-19</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST4103</t>
+          <t>CUST1723</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>55367540</v>
+        <v>32063018</v>
       </c>
       <c r="E95" t="n">
-        <v>19056648</v>
+        <v>8133502</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5568,25 +5568,25 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST4281</t>
+          <t>CUST9023</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>33484545</v>
+        <v>53451264</v>
       </c>
       <c r="E96" t="n">
-        <v>9242374</v>
+        <v>13820518</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -5600,17 +5600,17 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5622,25 +5622,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-07-30</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST2496</t>
+          <t>CUST8079</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>53697423</v>
+        <v>51573936</v>
       </c>
       <c r="E97" t="n">
-        <v>13431371</v>
+        <v>15537731</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5676,25 +5676,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-28</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST3311</t>
+          <t>CUST9622</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>38159629</v>
+        <v>53014228</v>
       </c>
       <c r="E98" t="n">
-        <v>10082012</v>
+        <v>17321154</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -5708,12 +5708,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -5730,29 +5730,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST7798</t>
+          <t>CUST8802</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>47574200</v>
+        <v>36782031</v>
       </c>
       <c r="E99" t="n">
-        <v>15782650</v>
+        <v>11632745</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5784,25 +5784,25 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-30</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST8653</t>
+          <t>CUST1709</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>52963704</v>
+        <v>41371717</v>
       </c>
       <c r="E100" t="n">
-        <v>15667237</v>
+        <v>12804186</v>
       </c>
       <c r="F100" t="n">
         <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -5816,17 +5816,17 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5838,25 +5838,25 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST7798</t>
+          <t>CUST7886</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>59897167</v>
+        <v>42840709</v>
       </c>
       <c r="E101" t="n">
-        <v>15754678</v>
+        <v>10777740</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5892,29 +5892,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-07-04</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CUST3227</t>
+          <t>CUST5088</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>37347405</v>
+        <v>46377910</v>
       </c>
       <c r="E102" t="n">
-        <v>11261946</v>
+        <v>13962659</v>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5929,12 +5929,12 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5946,29 +5946,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUST7919</t>
+          <t>CUST6362</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>33628802</v>
+        <v>32843946</v>
       </c>
       <c r="E103" t="n">
-        <v>10247888</v>
+        <v>11350363</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5978,17 +5978,17 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6000,25 +6000,25 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-07-28</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CUST7798</t>
+          <t>CUST9236</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>49934278</v>
+        <v>43654022</v>
       </c>
       <c r="E104" t="n">
-        <v>14950202</v>
+        <v>13915663</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6054,25 +6054,25 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-07-04</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CUST3788</t>
+          <t>CUST2482</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>55011462</v>
+        <v>44623408</v>
       </c>
       <c r="E105" t="n">
-        <v>15410261</v>
+        <v>14743540</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G105" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -6086,12 +6086,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -6108,29 +6108,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CUST3955</t>
+          <t>CUST1723</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>54100244</v>
+        <v>53984276</v>
       </c>
       <c r="E106" t="n">
-        <v>18126988</v>
+        <v>18809668</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6162,29 +6162,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CUST7919</t>
+          <t>CUST7110</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>54551020</v>
+        <v>37847513</v>
       </c>
       <c r="E107" t="n">
-        <v>18023992</v>
+        <v>10998376</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -6216,29 +6216,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-19</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CUST2921</t>
+          <t>CUST2482</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>38174875</v>
+        <v>56033271</v>
       </c>
       <c r="E108" t="n">
-        <v>12215297</v>
+        <v>15040636</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6253,12 +6253,12 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6270,25 +6270,25 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-07-19</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUST1570</t>
+          <t>CUST9705</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>40949439</v>
+        <v>33798750</v>
       </c>
       <c r="E109" t="n">
-        <v>11600998</v>
+        <v>11624761</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-30</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CUST2761</t>
+          <t>CUST1279</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>52254707</v>
+        <v>56787896</v>
       </c>
       <c r="E110" t="n">
-        <v>18037692</v>
+        <v>18502533</v>
       </c>
       <c r="F110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6378,25 +6378,25 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CUST3605</t>
+          <t>CUST8079</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>54723198</v>
+        <v>47076256</v>
       </c>
       <c r="E111" t="n">
-        <v>19016897</v>
+        <v>16071444</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -6410,17 +6410,17 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6432,25 +6432,25 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CUST4962</t>
+          <t>CUST1723</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>44046660</v>
+        <v>46355825</v>
       </c>
       <c r="E112" t="n">
-        <v>11085290</v>
+        <v>13562513</v>
       </c>
       <c r="F112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -6469,12 +6469,12 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6486,29 +6486,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CUST4941</t>
+          <t>CUST6961</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>39686748</v>
+        <v>37189356</v>
       </c>
       <c r="E113" t="n">
-        <v>12806277</v>
+        <v>9723529</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6518,17 +6518,17 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6540,25 +6540,25 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUST9229</t>
+          <t>CUST7886</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>53241229</v>
+        <v>41823928</v>
       </c>
       <c r="E114" t="n">
-        <v>16223631</v>
+        <v>11925130</v>
       </c>
       <c r="F114" t="n">
         <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -6572,17 +6572,17 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6594,29 +6594,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CUST3605</t>
+          <t>CUST4559</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>38646079</v>
+        <v>59596960</v>
       </c>
       <c r="E115" t="n">
-        <v>12098445</v>
+        <v>20299484</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6631,12 +6631,12 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6648,29 +6648,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CUST4626</t>
+          <t>CUST8449</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>32395471</v>
+        <v>37449227</v>
       </c>
       <c r="E116" t="n">
-        <v>10409366</v>
+        <v>10822685</v>
       </c>
       <c r="F116" t="n">
         <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6685,12 +6685,12 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6702,29 +6702,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CUST2921</t>
+          <t>CUST8780</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>38239662</v>
+        <v>30551483</v>
       </c>
       <c r="E117" t="n">
-        <v>10056171</v>
+        <v>7771412</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUST4962</t>
+          <t>CUST4559</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>46353436</v>
+        <v>30939645</v>
       </c>
       <c r="E118" t="n">
-        <v>14787809</v>
+        <v>8504343</v>
       </c>
       <c r="F118" t="n">
         <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -6793,12 +6793,12 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6810,25 +6810,25 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CUST6433</t>
+          <t>CUST8308</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>35070276</v>
+        <v>56483826</v>
       </c>
       <c r="E119" t="n">
-        <v>9571630</v>
+        <v>16012817</v>
       </c>
       <c r="F119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -6842,17 +6842,17 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6864,25 +6864,25 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-07-29</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CUST7076</t>
+          <t>CUST4603</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>38300767</v>
+        <v>56047380</v>
       </c>
       <c r="E120" t="n">
-        <v>9747414</v>
+        <v>18991459</v>
       </c>
       <c r="F120" t="n">
         <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -6901,12 +6901,12 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6918,19 +6918,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-07-18</t>
+          <t>2026-07-28</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CUST2055</t>
+          <t>CUST7257</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>46847881</v>
+        <v>55021761</v>
       </c>
       <c r="E121" t="n">
-        <v>13826311</v>
+        <v>18481471</v>
       </c>
       <c r="F121" t="n">
         <v>2</v>
@@ -6950,17 +6950,17 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -7017,16 +7017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>4219678</v>
+        <v>20346687</v>
       </c>
       <c r="E2" t="n">
-        <v>957774</v>
+        <v>3377118</v>
       </c>
     </row>
     <row r="3">
@@ -7036,16 +7036,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>11968587</v>
+        <v>10856570</v>
       </c>
       <c r="E3" t="n">
-        <v>1758006</v>
+        <v>1503523</v>
       </c>
     </row>
     <row r="4">
@@ -7055,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.2</v>
+        <v>98.5</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>9094807</v>
+        <v>7872217</v>
       </c>
       <c r="E4" t="n">
-        <v>1953618</v>
+        <v>1882419</v>
       </c>
     </row>
     <row r="5">
@@ -7074,16 +7074,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2527560</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>269563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7093,16 +7093,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3398296</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>403902</v>
       </c>
     </row>
     <row r="7">
@@ -7112,16 +7112,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6684121</v>
+        <v>14585282</v>
       </c>
       <c r="E7" t="n">
-        <v>770768</v>
+        <v>3097084</v>
       </c>
     </row>
     <row r="8">
@@ -7131,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>11928134</v>
+        <v>14728184</v>
       </c>
       <c r="E8" t="n">
-        <v>1790398</v>
+        <v>3580671</v>
       </c>
     </row>
     <row r="9">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>9770985</v>
+        <v>13091106</v>
       </c>
       <c r="E9" t="n">
-        <v>1393186</v>
+        <v>3153849</v>
       </c>
     </row>
     <row r="10">
@@ -7169,16 +7169,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>6737091</v>
+        <v>9157085</v>
       </c>
       <c r="E10" t="n">
-        <v>1011757</v>
+        <v>944646</v>
       </c>
     </row>
     <row r="11">
@@ -7188,16 +7188,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.7</v>
+        <v>91.3</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>4982480</v>
+        <v>13124957</v>
       </c>
       <c r="E11" t="n">
-        <v>990123</v>
+        <v>1952474</v>
       </c>
     </row>
     <row r="12">
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2855275</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>295691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7226,16 +7226,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8887977</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1373704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7245,16 +7245,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>4658401</v>
+        <v>7412674</v>
       </c>
       <c r="E14" t="n">
-        <v>1026855</v>
+        <v>886763</v>
       </c>
     </row>
     <row r="15">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>6562992</v>
+        <v>6997210</v>
       </c>
       <c r="E15" t="n">
-        <v>926332</v>
+        <v>941017</v>
       </c>
     </row>
     <row r="16">
@@ -7283,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92</v>
+        <v>94.2</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>8778121</v>
+        <v>2967079</v>
       </c>
       <c r="E16" t="n">
-        <v>2292161</v>
+        <v>752933</v>
       </c>
     </row>
     <row r="17">
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94</v>
+        <v>90.2</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>3151721</v>
+        <v>5829745</v>
       </c>
       <c r="E17" t="n">
-        <v>671044</v>
+        <v>702365</v>
       </c>
     </row>
     <row r="18">
@@ -7321,16 +7321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>97.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>9466941</v>
+        <v>3070074</v>
       </c>
       <c r="E18" t="n">
-        <v>1111859</v>
+        <v>319103</v>
       </c>
     </row>
     <row r="19">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>6602641</v>
+        <v>8292599</v>
       </c>
       <c r="E21" t="n">
-        <v>672309</v>
+        <v>991423</v>
       </c>
     </row>
     <row r="22">
@@ -7397,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4184304</v>
+        <v>6543395</v>
       </c>
       <c r="E22" t="n">
-        <v>987521</v>
+        <v>692398</v>
       </c>
     </row>
     <row r="23">
@@ -7416,16 +7416,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>12437987</v>
+        <v>15084336</v>
       </c>
       <c r="E23" t="n">
-        <v>2421617</v>
+        <v>2457642</v>
       </c>
     </row>
     <row r="24">
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.2</v>
+        <v>97.2</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>10563981</v>
+        <v>12744856</v>
       </c>
       <c r="E24" t="n">
-        <v>1571999</v>
+        <v>3437528</v>
       </c>
     </row>
     <row r="25">
@@ -7454,16 +7454,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>9348491</v>
+        <v>10908804</v>
       </c>
       <c r="E25" t="n">
-        <v>1634016</v>
+        <v>2851874</v>
       </c>
     </row>
     <row r="26">
@@ -7492,16 +7492,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>91.5</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3983797</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>771170</v>
       </c>
     </row>
     <row r="28">
@@ -7511,16 +7511,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>7472056</v>
+        <v>7563380</v>
       </c>
       <c r="E28" t="n">
-        <v>2218709</v>
+        <v>2101192</v>
       </c>
     </row>
     <row r="29">
@@ -7530,16 +7530,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>10547569</v>
+        <v>7840654</v>
       </c>
       <c r="E29" t="n">
-        <v>1986332</v>
+        <v>2049507</v>
       </c>
     </row>
     <row r="30">
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>94.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>10414633</v>
+        <v>14803593</v>
       </c>
       <c r="E30" t="n">
-        <v>2018311</v>
+        <v>3774748</v>
       </c>
     </row>
     <row r="31">
@@ -7568,16 +7568,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>6046201</v>
+        <v>11665030</v>
       </c>
       <c r="E31" t="n">
-        <v>1086836</v>
+        <v>3477564</v>
       </c>
     </row>
     <row r="32">
@@ -7593,10 +7593,10 @@
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>7125229</v>
+        <v>11174016</v>
       </c>
       <c r="E32" t="n">
-        <v>1748682</v>
+        <v>1733346</v>
       </c>
     </row>
   </sheetData>
